--- a/important LM5116.xlsx
+++ b/important LM5116.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="ULVO" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="COMP" sheetId="4" r:id="rId4"/>
     <sheet name="RAMP" sheetId="5" r:id="rId5"/>
     <sheet name="SS" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet6" sheetId="7" r:id="rId7"/>
+    <sheet name="CS" sheetId="7" r:id="rId7"/>
     <sheet name="Sheet7" sheetId="8" r:id="rId8"/>
     <sheet name="Sheet8" sheetId="9" r:id="rId9"/>
     <sheet name="Sheet9" sheetId="10" r:id="rId10"/>
@@ -21,12 +21,12 @@
     <sheet name="Sheet11" sheetId="12" r:id="rId12"/>
     <sheet name="Components" sheetId="13" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>If the UVLO pin is below 1.215V, the regulator will be in standby mode (VCC regulator running, switching regulator
 disabled). If the UVLO pin voltage is above 1.215V, the regulator is operational. An external voltage divider can be used
@@ -333,12 +333,89 @@
 UVLO pin &lt; 1.215, or EN = 0V) the soft-start capacitor is discharged. Once the fault condition is no longer
 present, a new soft-start sequence begins.</t>
   </si>
+  <si>
+    <t>Rs</t>
+  </si>
+  <si>
+    <t>Rg</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Ohm</t>
+  </si>
+  <si>
+    <t>kHm</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Current Limit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+The LM5116 contains a current limit monitoring scheme to protect the circuit from possible over-current
+conditions. When set correctly, the emulated current sense signal is proportional to the buck switch current with a
+scale factor determined by the current limit sense resistor. The emulated ramp signal is applied to the current
+limit comparator. If the emulated ramp signal exceeds 1.6V, the current cycle is terminated (cycle-by-cycle
+current limiting). Since the ramp amplitude is proportional to VIN - VOUT, if VOUT is shorted, there is an immediate
+reduction in duty cycle. To further protect the external switches during prolonged current limit conditions, an
+internal counter counts clock pulses when in current limit. When the counter detects 256 consecutive clock
+cycles, the regulator enters a low power dissipation hiccup mode of current limit. The regulator is shut down by
+momentarily pulling UVLO low, and the soft-start capacitor discharged. The regulator is restarted with a full softstart
+cycle once UVLO charges back to 1.215V. This process is repeated until the fault is removed. The hiccup
+off-time can be controlled by a capacitor to ground on the UVLO pin. In applications with low output inductance
+and high input voltage, the switch current may overshoot due to the propagation delay of the current limit</t>
+    </r>
+  </si>
+  <si>
+    <t>comparator. If an overshoot should occur, the sample-and-hold circuit will detect the excess recirculating current.
+If the sample-and-hold DC level exceeds the internal current limit threshold, the buck switch will be disabled and
+skip pulses until the current has decayed below the current limit threshold. This approach prevents current
+runaway conditions due to propagation delays or inductor saturation since the inductor current is forced to decay
+following any current overshoot.</t>
+  </si>
+  <si>
+    <t>Using a current sense resistor in the source of the low-side MOSFET provides superior current limit accuracy
+compared to RDS(ON) sensing. RDS(ON) sensing is far less accurate due to the large variation of MOSFET RDS(ON)
+with temperature and part-to-part variation. The CS and CSG pins should be Kelvin connected to the current
+sense resistor or MOSFET drain and source.
+The peak current which triggers the current limit comparator is:</t>
+  </si>
+  <si>
+    <t>The 1.1V threshold is the difference between the 1.6V reference at the current limit comparator and the 0.5V
+offset at the current sense amplifier. This offset at the current sense amplifier allows the inductor ripple current to
+go negative by 0.5V / (A x RS) when running full synchronous operation.
+Current limit hysteresis prevents chatter around the threshold when VCCX is powered from VOUT. When 4.5V &lt;
+VCC &lt; 5.8V, the 1.6V reference is increased to 1.72V. The peak current which triggers the current limit
+comparator becomes:</t>
+  </si>
+  <si>
+    <t>This has the effect of a 10% fold-back of the peak current during a short circuit when VCCX is powered from a
+5V output.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -393,6 +470,23 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -414,7 +508,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -440,12 +534,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -839,6 +944,176 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>600076</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>447676</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1302264</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3038476" y="66676"/>
+          <a:ext cx="4114800" cy="2188088"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4343400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="47625" y="6848475"/>
+          <a:ext cx="4295775" cy="1162050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2924175</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="9525000"/>
+          <a:ext cx="2924175" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -882,7 +1157,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -914,9 +1189,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -948,6 +1224,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1123,36 +1400,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="162.42578125" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="162.42578125" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="162.42578125" style="3" customWidth="1"/>
     <col min="2" max="2" width="64.7109375" style="3" customWidth="1"/>
     <col min="3" max="16384" width="162.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="75">
+    <row r="1" spans="1:1" ht="75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="131.25">
+    <row r="3" spans="1:1" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>8</v>
       </c>
@@ -1160,7 +1437,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1168,7 +1445,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>9</v>
       </c>
@@ -1177,7 +1454,7 @@
         <v>32.742404227212681</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>5</v>
       </c>
@@ -1185,7 +1462,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>10</v>
       </c>
@@ -1193,7 +1470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>4</v>
       </c>
@@ -1202,7 +1479,7 @@
         <v>-2.1566639900649642</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>6</v>
       </c>
@@ -1211,7 +1488,7 @@
         <v>0.24300000000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>7</v>
       </c>
@@ -1224,57 +1501,57 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1288,31 +1565,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21"/>
+  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="146.7109375" style="8" customWidth="1"/>
     <col min="2" max="2" width="14" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="105">
+    <row r="1" spans="1:2" ht="105" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="210">
+    <row r="11" spans="1:2" ht="210" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
         <v>19</v>
       </c>
@@ -1320,7 +1597,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
         <v>18</v>
       </c>
@@ -1328,7 +1605,7 @@
         <v>1200000</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
         <v>16</v>
       </c>
@@ -1337,7 +1614,7 @@
         <v>11995.5</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
         <v>17</v>
       </c>
@@ -1352,34 +1629,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="97.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30.75" customHeight="1">
+    <row r="1" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="34.5" customHeight="1">
+    <row r="3" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="30">
+    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -1388,7 +1665,7 @@
         <v>81.304526748971185</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1396,7 +1673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -1411,29 +1688,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="155.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="129.75" customHeight="1">
+    <row r="25" spans="1:1" ht="129.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="90">
+    <row r="27" spans="1:1" ht="90" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>28</v>
       </c>
@@ -1445,30 +1722,30 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E14" sqref="E5:E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="91.5703125" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="45" customHeight="1">
+    <row r="1" spans="1:1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="330">
+    <row r="3" spans="1:1" ht="360" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="195">
+    <row r="5" spans="1:1" ht="195" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
@@ -1480,29 +1757,29 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="112.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="39.75" customHeight="1">
+    <row r="1" spans="1:1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="93.75" customHeight="1">
+    <row r="3" spans="1:1" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="276" customHeight="1">
+    <row r="5" spans="1:1" ht="276" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>34</v>
       </c>
@@ -1514,36 +1791,103 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:C23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="103.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2">
+        <v>0.01</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4">
+        <f>10/(1+B3)</f>
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="240" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
